--- a/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
+++ b/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\bldgs\SoBCaICbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/bldgs/sobcaicbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA0317A-7365-40AD-92B3-B33F9395C51A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94942745-4BDF-2049-8BB2-0BBA1DA0015B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="27180" windowHeight="14835" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="27180" windowHeight="14840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -2784,7 +2784,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3112,6 +3112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3545,21 +3546,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="76.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="76.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="149">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -3567,151 +3571,151 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <v>2008</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="112" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="114" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="113" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="113" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="106"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="106"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="106" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="106"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="106" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="106"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="106" t="s">
         <v>445</v>
       </c>
@@ -3737,13 +3741,13 @@
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="43" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="43" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>450</v>
       </c>
@@ -3874,7 +3878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>325</v>
       </c>
@@ -4047,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
         <v>326</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>438</v>
       </c>
@@ -4393,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
         <v>332</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>394</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
         <v>72</v>
       </c>
@@ -4927,13 +4931,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="43" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="43" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>450</v>
       </c>
@@ -5064,7 +5068,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>325</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
         <v>326</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>438</v>
       </c>
@@ -5583,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
         <v>332</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>394</v>
       </c>
@@ -5929,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
         <v>72</v>
       </c>
@@ -6116,13 +6120,13 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="43" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="43" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>450</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>325</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
         <v>326</v>
       </c>
@@ -6599,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>438</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
         <v>332</v>
       </c>
@@ -6945,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>394</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
         <v>72</v>
       </c>
@@ -7302,18 +7306,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="11" width="7.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="11" width="7.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="128" t="s">
         <v>157</v>
       </c>
@@ -7327,7 +7331,7 @@
       <c r="J2" s="129"/>
       <c r="K2" s="129"/>
     </row>
-    <row r="3" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="130" t="s">
         <v>158</v>
@@ -7341,7 +7345,7 @@
       <c r="J3" s="132"/>
       <c r="K3" s="132"/>
     </row>
-    <row r="4" spans="2:11" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="133" t="s">
         <v>159</v>
@@ -7359,7 +7363,7 @@
       <c r="J4" s="138"/>
       <c r="K4" s="138"/>
     </row>
-    <row r="5" spans="2:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="134" t="s">
         <v>159</v>
@@ -7387,7 +7391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>168</v>
       </c>
@@ -7419,7 +7423,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>169</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
         <v>171</v>
       </c>
@@ -7483,7 +7487,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
         <v>173</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>174</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
         <v>175</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
         <v>176</v>
       </c>
@@ -7611,7 +7615,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>177</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>178</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>179</v>
       </c>
@@ -7707,7 +7711,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>180</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
         <v>181</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
         <v>182</v>
       </c>
@@ -7803,7 +7807,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>184</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>185</v>
       </c>
@@ -7867,7 +7871,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>186</v>
       </c>
@@ -7899,7 +7903,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>187</v>
       </c>
@@ -7931,7 +7935,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>188</v>
       </c>
@@ -7963,7 +7967,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>189</v>
       </c>
@@ -7996,7 +8000,7 @@
       </c>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="23" t="s">
         <v>190</v>
       </c>
@@ -8028,7 +8032,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="23" t="s">
         <v>191</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
         <v>192</v>
       </c>
@@ -8092,7 +8096,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
         <v>193</v>
       </c>
@@ -8124,7 +8128,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
         <v>194</v>
       </c>
@@ -8156,7 +8160,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
         <v>195</v>
       </c>
@@ -8188,7 +8192,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>196</v>
       </c>
@@ -8220,7 +8224,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
         <v>197</v>
       </c>
@@ -8252,7 +8256,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
         <v>198</v>
       </c>
@@ -8284,7 +8288,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
         <v>199</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="18" t="s">
         <v>200</v>
       </c>
@@ -8348,7 +8352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
         <v>201</v>
       </c>
@@ -8380,7 +8384,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
         <v>202</v>
       </c>
@@ -8412,7 +8416,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="20" t="s">
         <v>203</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="20" t="s">
         <v>204</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
         <v>205</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="20" t="s">
         <v>206</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="20" t="s">
         <v>207</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20" t="s">
         <v>208</v>
       </c>
@@ -8604,7 +8608,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="20" t="s">
         <v>209</v>
       </c>
@@ -8636,7 +8640,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="20" t="s">
         <v>210</v>
       </c>
@@ -8668,7 +8672,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="18" t="s">
         <v>211</v>
       </c>
@@ -8700,7 +8704,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="20" t="s">
         <v>212</v>
       </c>
@@ -8732,7 +8736,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="21" t="s">
         <v>213</v>
       </c>
@@ -8764,7 +8768,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>214</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="20" t="s">
         <v>215</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="21" t="s">
         <v>216</v>
       </c>
@@ -8860,7 +8864,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="21" t="s">
         <v>217</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="20" t="s">
         <v>218</v>
       </c>
@@ -8924,7 +8928,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="21" t="s">
         <v>219</v>
       </c>
@@ -8956,7 +8960,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
         <v>220</v>
       </c>
@@ -8988,7 +8992,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>221</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="20" t="s">
         <v>222</v>
       </c>
@@ -9052,7 +9056,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
         <v>223</v>
       </c>
@@ -9084,7 +9088,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="21" t="s">
         <v>224</v>
       </c>
@@ -9116,7 +9120,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="18" t="s">
         <v>225</v>
       </c>
@@ -9148,7 +9152,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="20" t="s">
         <v>226</v>
       </c>
@@ -9180,7 +9184,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="20" t="s">
         <v>227</v>
       </c>
@@ -9212,7 +9216,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="20" t="s">
         <v>228</v>
       </c>
@@ -9244,7 +9248,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="20" t="s">
         <v>229</v>
       </c>
@@ -9276,7 +9280,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="20" t="s">
         <v>230</v>
       </c>
@@ -9308,7 +9312,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="18" t="s">
         <v>231</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="20" t="s">
         <v>232</v>
       </c>
@@ -9372,7 +9376,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="20" t="s">
         <v>233</v>
       </c>
@@ -9404,7 +9408,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="20" t="s">
         <v>234</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="20" t="s">
         <v>235</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="20" t="s">
         <v>236</v>
       </c>
@@ -9500,7 +9504,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="18" t="s">
         <v>237</v>
       </c>
@@ -9532,7 +9536,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="20" t="s">
         <v>238</v>
       </c>
@@ -9564,7 +9568,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="20" t="s">
         <v>239</v>
       </c>
@@ -9596,7 +9600,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="20" t="s">
         <v>240</v>
       </c>
@@ -9628,7 +9632,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="20" t="s">
         <v>241</v>
       </c>
@@ -9660,7 +9664,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="20" t="s">
         <v>242</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="20" t="s">
         <v>243</v>
       </c>
@@ -9724,7 +9728,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="20" t="s">
         <v>244</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="18" t="s">
         <v>245</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="20" t="s">
         <v>246</v>
       </c>
@@ -9820,7 +9824,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="20" t="s">
         <v>247</v>
       </c>
@@ -9852,7 +9856,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="20" t="s">
         <v>248</v>
       </c>
@@ -9884,7 +9888,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="20" t="s">
         <v>249</v>
       </c>
@@ -9916,7 +9920,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="20" t="s">
         <v>250</v>
       </c>
@@ -9948,7 +9952,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="20" t="s">
         <v>251</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="18" t="s">
         <v>252</v>
       </c>
@@ -10012,7 +10016,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="20" t="s">
         <v>253</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="21" t="s">
         <v>254</v>
       </c>
@@ -10076,7 +10080,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
         <v>255</v>
       </c>
@@ -10108,7 +10112,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>256</v>
       </c>
@@ -10140,7 +10144,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>257</v>
       </c>
@@ -10172,7 +10176,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="20" t="s">
         <v>258</v>
       </c>
@@ -10204,7 +10208,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="21" t="s">
         <v>259</v>
       </c>
@@ -10236,7 +10240,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="21" t="s">
         <v>260</v>
       </c>
@@ -10268,7 +10272,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="21" t="s">
         <v>261</v>
       </c>
@@ -10300,7 +10304,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="18" t="s">
         <v>262</v>
       </c>
@@ -10332,7 +10336,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="20" t="s">
         <v>263</v>
       </c>
@@ -10364,7 +10368,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="20" t="s">
         <v>264</v>
       </c>
@@ -10396,7 +10400,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="20" t="s">
         <v>265</v>
       </c>
@@ -10428,7 +10432,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="20" t="s">
         <v>72</v>
       </c>
@@ -10460,7 +10464,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="18" t="s">
         <v>266</v>
       </c>
@@ -10492,7 +10496,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="20" t="s">
         <v>263</v>
       </c>
@@ -10524,7 +10528,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="20" t="s">
         <v>264</v>
       </c>
@@ -10556,7 +10560,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="20" t="s">
         <v>265</v>
       </c>
@@ -10588,7 +10592,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="20" t="s">
         <v>72</v>
       </c>
@@ -10620,7 +10624,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="18" t="s">
         <v>267</v>
       </c>
@@ -10652,7 +10656,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="20" t="s">
         <v>268</v>
       </c>
@@ -10684,7 +10688,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="109" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="20" t="s">
         <v>269</v>
       </c>
@@ -10716,7 +10720,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="20" t="s">
         <v>270</v>
       </c>
@@ -10748,7 +10752,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="20" t="s">
         <v>271</v>
       </c>
@@ -10780,7 +10784,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="20" t="s">
         <v>272</v>
       </c>
@@ -10812,7 +10816,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="113" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="20" t="s">
         <v>273</v>
       </c>
@@ -10844,7 +10848,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="20" t="s">
         <v>274</v>
       </c>
@@ -10876,7 +10880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="20" t="s">
         <v>275</v>
       </c>
@@ -10908,7 +10912,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="20" t="s">
         <v>276</v>
       </c>
@@ -10940,7 +10944,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="20" t="s">
         <v>277</v>
       </c>
@@ -10972,7 +10976,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="20" t="s">
         <v>278</v>
       </c>
@@ -11004,7 +11008,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="119" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="20" t="s">
         <v>72</v>
       </c>
@@ -11036,7 +11040,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="120" spans="2:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="18" t="s">
         <v>279</v>
       </c>
@@ -11068,7 +11072,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="20" t="s">
         <v>280</v>
       </c>
@@ -11100,7 +11104,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="122" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="21" t="s">
         <v>281</v>
       </c>
@@ -11132,7 +11136,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="123" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="21" t="s">
         <v>282</v>
       </c>
@@ -11164,7 +11168,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="21" t="s">
         <v>283</v>
       </c>
@@ -11196,7 +11200,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="125" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="21" t="s">
         <v>284</v>
       </c>
@@ -11228,7 +11232,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="21" t="s">
         <v>285</v>
       </c>
@@ -11260,7 +11264,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>286</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="21" t="s">
         <v>287</v>
       </c>
@@ -11324,7 +11328,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="21" t="s">
         <v>288</v>
       </c>
@@ -11356,7 +11360,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="21" t="s">
         <v>289</v>
       </c>
@@ -11388,7 +11392,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="21" t="s">
         <v>290</v>
       </c>
@@ -11420,7 +11424,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="21" t="s">
         <v>291</v>
       </c>
@@ -11452,7 +11456,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="21" t="s">
         <v>292</v>
       </c>
@@ -11484,7 +11488,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>293</v>
       </c>
@@ -11516,7 +11520,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="21" t="s">
         <v>72</v>
       </c>
@@ -11548,7 +11552,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="20" t="s">
         <v>294</v>
       </c>
@@ -11580,7 +11584,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="137" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="26" t="s">
         <v>295</v>
       </c>
@@ -11612,7 +11616,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="138" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="46" t="s">
         <v>296</v>
       </c>
@@ -11644,7 +11648,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="48" t="s">
         <v>297</v>
       </c>
@@ -11676,7 +11680,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="140" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="48" t="s">
         <v>298</v>
       </c>
@@ -11708,7 +11712,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="141" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="48" t="s">
         <v>299</v>
       </c>
@@ -11740,7 +11744,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="142" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="48" t="s">
         <v>300</v>
       </c>
@@ -11772,7 +11776,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="143" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="48" t="s">
         <v>301</v>
       </c>
@@ -11804,7 +11808,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="144" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="48" t="s">
         <v>95</v>
       </c>
@@ -11836,7 +11840,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="48" t="s">
         <v>72</v>
       </c>
@@ -11868,7 +11872,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="18" t="s">
         <v>302</v>
       </c>
@@ -11900,7 +11904,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="20" t="s">
         <v>297</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="20" t="s">
         <v>298</v>
       </c>
@@ -11964,7 +11968,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="20" t="s">
         <v>299</v>
       </c>
@@ -11996,7 +12000,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="20" t="s">
         <v>300</v>
       </c>
@@ -12028,7 +12032,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="20" t="s">
         <v>95</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B152" s="26" t="s">
         <v>72</v>
       </c>
@@ -12092,7 +12096,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="28" t="s">
         <v>303</v>
       </c>
@@ -12124,7 +12128,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="31" t="s">
         <v>297</v>
       </c>
@@ -12156,7 +12160,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="31" t="s">
         <v>298</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="31" t="s">
         <v>299</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="31" t="s">
         <v>300</v>
       </c>
@@ -12252,7 +12256,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="31" t="s">
         <v>95</v>
       </c>
@@ -12284,7 +12288,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B159" s="34" t="s">
         <v>72</v>
       </c>
@@ -12316,7 +12320,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="18" t="s">
         <v>304</v>
       </c>
@@ -12348,7 +12352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="20" t="s">
         <v>160</v>
       </c>
@@ -12380,7 +12384,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="20" t="s">
         <v>305</v>
       </c>
@@ -12412,7 +12416,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="20" t="s">
         <v>306</v>
       </c>
@@ -12444,7 +12448,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="20" t="s">
         <v>307</v>
       </c>
@@ -12476,7 +12480,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="20" t="s">
         <v>308</v>
       </c>
@@ -12508,7 +12512,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="2:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="20" t="s">
         <v>309</v>
       </c>
@@ -12540,7 +12544,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="167" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="18" t="s">
         <v>310</v>
       </c>
@@ -12572,7 +12576,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="20" t="s">
         <v>311</v>
       </c>
@@ -12604,7 +12608,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="20" t="s">
         <v>312</v>
       </c>
@@ -12636,7 +12640,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="20" t="s">
         <v>313</v>
       </c>
@@ -12668,7 +12672,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="171" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="37" t="s">
         <v>314</v>
       </c>
@@ -12700,7 +12704,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="172" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="18" t="s">
         <v>161</v>
       </c>
@@ -12732,7 +12736,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="20" t="s">
         <v>315</v>
       </c>
@@ -12764,7 +12768,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="20" t="s">
         <v>163</v>
       </c>
@@ -12796,7 +12800,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="20" t="s">
         <v>316</v>
       </c>
@@ -12828,7 +12832,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="176" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="20" t="s">
         <v>300</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="20" t="s">
         <v>166</v>
       </c>
@@ -12892,7 +12896,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="178" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="20" t="s">
         <v>317</v>
       </c>
@@ -12924,7 +12928,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="179" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="26" t="s">
         <v>72</v>
       </c>
@@ -12956,7 +12960,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="180" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="46" t="s">
         <v>318</v>
       </c>
@@ -12988,7 +12992,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="2:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="48" t="s">
         <v>319</v>
       </c>
@@ -13020,7 +13024,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="182" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="48" t="s">
         <v>315</v>
       </c>
@@ -13052,7 +13056,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="183" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="48" t="s">
         <v>320</v>
       </c>
@@ -13084,7 +13088,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="48" t="s">
         <v>301</v>
       </c>
@@ -13116,7 +13120,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="185" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="48" t="s">
         <v>321</v>
       </c>
@@ -13148,7 +13152,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="186" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="48" t="s">
         <v>322</v>
       </c>
@@ -13180,7 +13184,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="187" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="48" t="s">
         <v>323</v>
       </c>
@@ -13212,7 +13216,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="48" t="s">
         <v>72</v>
       </c>
@@ -13244,7 +13248,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="18" t="s">
         <v>324</v>
       </c>
@@ -13276,7 +13280,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="20" t="s">
         <v>325</v>
       </c>
@@ -13308,7 +13312,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="191" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="20" t="s">
         <v>326</v>
       </c>
@@ -13340,7 +13344,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="192" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="18" t="s">
         <v>327</v>
       </c>
@@ -13372,7 +13376,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="193" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="20" t="s">
         <v>328</v>
       </c>
@@ -13404,7 +13408,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="194" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="20" t="s">
         <v>329</v>
       </c>
@@ -13436,7 +13440,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="195" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="20" t="s">
         <v>330</v>
       </c>
@@ -13468,7 +13472,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="196" spans="2:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="18" t="s">
         <v>331</v>
       </c>
@@ -13500,7 +13504,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="20" t="s">
         <v>325</v>
       </c>
@@ -13532,7 +13536,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="198" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="20" t="s">
         <v>326</v>
       </c>
@@ -13564,7 +13568,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="199" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="20" t="s">
         <v>332</v>
       </c>
@@ -13596,10 +13600,10 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="200" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B200" s="21"/>
     </row>
-    <row r="201" spans="2:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="126" t="s">
         <v>333</v>
       </c>
@@ -13613,7 +13617,7 @@
       <c r="J201" s="127"/>
       <c r="K201" s="127"/>
     </row>
-    <row r="202" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B201:K201"/>
@@ -13639,18 +13643,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="9" width="7.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="9" width="7.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="128" t="s">
         <v>358</v>
       </c>
@@ -13663,7 +13667,7 @@
       <c r="H2" s="129"/>
       <c r="I2" s="129"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="130" t="s">
         <v>158</v>
@@ -13676,7 +13680,7 @@
       <c r="H3" s="139"/>
       <c r="I3" s="139"/>
     </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="133" t="s">
         <v>159</v>
@@ -13693,7 +13697,7 @@
       <c r="H4" s="142"/>
       <c r="I4" s="142"/>
     </row>
-    <row r="5" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
       <c r="B5" s="140" t="s">
         <v>159</v>
@@ -13718,7 +13722,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>168</v>
       </c>
@@ -13747,7 +13751,7 @@
         <v>22071</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>169</v>
       </c>
@@ -13776,7 +13780,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>171</v>
       </c>
@@ -13805,7 +13809,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>173</v>
       </c>
@@ -13834,7 +13838,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>174</v>
       </c>
@@ -13863,7 +13867,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>175</v>
       </c>
@@ -13892,7 +13896,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>176</v>
       </c>
@@ -13921,7 +13925,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>177</v>
       </c>
@@ -13950,7 +13954,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>178</v>
       </c>
@@ -13979,7 +13983,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>179</v>
       </c>
@@ -14008,7 +14012,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>180</v>
       </c>
@@ -14037,7 +14041,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>181</v>
       </c>
@@ -14066,7 +14070,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>182</v>
       </c>
@@ -14095,7 +14099,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>184</v>
       </c>
@@ -14124,7 +14128,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>185</v>
       </c>
@@ -14153,7 +14157,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>186</v>
       </c>
@@ -14182,7 +14186,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>187</v>
       </c>
@@ -14211,7 +14215,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>188</v>
       </c>
@@ -14240,7 +14244,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>189</v>
       </c>
@@ -14270,7 +14274,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>190</v>
       </c>
@@ -14299,7 +14303,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>191</v>
       </c>
@@ -14328,7 +14332,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>192</v>
       </c>
@@ -14357,7 +14361,7 @@
         <v>5034</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>193</v>
       </c>
@@ -14386,7 +14390,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>194</v>
       </c>
@@ -14415,7 +14419,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>195</v>
       </c>
@@ -14444,7 +14448,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>196</v>
       </c>
@@ -14473,7 +14477,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>197</v>
       </c>
@@ -14502,7 +14506,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>198</v>
       </c>
@@ -14531,7 +14535,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>199</v>
       </c>
@@ -14560,7 +14564,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>200</v>
       </c>
@@ -14589,7 +14593,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>201</v>
       </c>
@@ -14618,7 +14622,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>202</v>
       </c>
@@ -14647,7 +14651,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>203</v>
       </c>
@@ -14676,7 +14680,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>204</v>
       </c>
@@ -14705,7 +14709,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>205</v>
       </c>
@@ -14734,7 +14738,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>206</v>
       </c>
@@ -14763,7 +14767,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>207</v>
       </c>
@@ -14792,7 +14796,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>208</v>
       </c>
@@ -14821,7 +14825,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>209</v>
       </c>
@@ -14850,7 +14854,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>210</v>
       </c>
@@ -14879,7 +14883,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>211</v>
       </c>
@@ -14908,7 +14912,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>212</v>
       </c>
@@ -14937,7 +14941,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>213</v>
       </c>
@@ -14966,7 +14970,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>214</v>
       </c>
@@ -14995,7 +14999,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>215</v>
       </c>
@@ -15024,7 +15028,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>216</v>
       </c>
@@ -15053,7 +15057,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>217</v>
       </c>
@@ -15082,7 +15086,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>218</v>
       </c>
@@ -15111,7 +15115,7 @@
         <v>7559</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>219</v>
       </c>
@@ -15140,7 +15144,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>220</v>
       </c>
@@ -15169,7 +15173,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>221</v>
       </c>
@@ -15198,7 +15202,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>222</v>
       </c>
@@ -15227,7 +15231,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>223</v>
       </c>
@@ -15256,7 +15260,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>224</v>
       </c>
@@ -15285,7 +15289,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>225</v>
       </c>
@@ -15314,7 +15318,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>226</v>
       </c>
@@ -15343,7 +15347,7 @@
         <v>9156</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>227</v>
       </c>
@@ -15372,7 +15376,7 @@
         <v>6936</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>228</v>
       </c>
@@ -15401,7 +15405,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>229</v>
       </c>
@@ -15430,7 +15434,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>230</v>
       </c>
@@ -15459,7 +15463,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>231</v>
       </c>
@@ -15488,7 +15492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>232</v>
       </c>
@@ -15517,7 +15521,7 @@
         <v>6930</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>233</v>
       </c>
@@ -15546,7 +15550,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>234</v>
       </c>
@@ -15575,7 +15579,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>235</v>
       </c>
@@ -15604,7 +15608,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>236</v>
       </c>
@@ -15633,7 +15637,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>237</v>
       </c>
@@ -15662,7 +15666,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>238</v>
       </c>
@@ -15691,7 +15695,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>239</v>
       </c>
@@ -15720,7 +15724,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>240</v>
       </c>
@@ -15749,7 +15753,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>241</v>
       </c>
@@ -15778,7 +15782,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>242</v>
       </c>
@@ -15807,7 +15811,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>243</v>
       </c>
@@ -15836,7 +15840,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>244</v>
       </c>
@@ -15865,7 +15869,7 @@
         <v>6814</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>245</v>
       </c>
@@ -15894,7 +15898,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>246</v>
       </c>
@@ -15923,7 +15927,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>247</v>
       </c>
@@ -15952,7 +15956,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>248</v>
       </c>
@@ -15981,7 +15985,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>249</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>250</v>
       </c>
@@ -16039,7 +16043,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>251</v>
       </c>
@@ -16068,7 +16072,7 @@
         <v>6745</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>252</v>
       </c>
@@ -16097,7 +16101,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>253</v>
       </c>
@@ -16126,7 +16130,7 @@
         <v>17210</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>254</v>
       </c>
@@ -16155,7 +16159,7 @@
         <v>6135</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
         <v>255</v>
       </c>
@@ -16184,7 +16188,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>256</v>
       </c>
@@ -16213,7 +16217,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
         <v>257</v>
       </c>
@@ -16242,7 +16246,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>258</v>
       </c>
@@ -16271,7 +16275,7 @@
         <v>4862</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
         <v>259</v>
       </c>
@@ -16300,7 +16304,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
         <v>260</v>
       </c>
@@ -16329,7 +16333,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
         <v>261</v>
       </c>
@@ -16358,7 +16362,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>262</v>
       </c>
@@ -16387,7 +16391,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>263</v>
       </c>
@@ -16416,7 +16420,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>264</v>
       </c>
@@ -16445,7 +16449,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>265</v>
       </c>
@@ -16474,7 +16478,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>72</v>
       </c>
@@ -16503,7 +16507,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>266</v>
       </c>
@@ -16532,7 +16536,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>263</v>
       </c>
@@ -16561,7 +16565,7 @@
         <v>18671</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>264</v>
       </c>
@@ -16590,7 +16594,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>265</v>
       </c>
@@ -16619,7 +16623,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>72</v>
       </c>
@@ -16648,7 +16652,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>267</v>
       </c>
@@ -16677,7 +16681,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>268</v>
       </c>
@@ -16706,7 +16710,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>269</v>
       </c>
@@ -16735,7 +16739,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>270</v>
       </c>
@@ -16764,7 +16768,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>271</v>
       </c>
@@ -16793,7 +16797,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>272</v>
       </c>
@@ -16822,7 +16826,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>273</v>
       </c>
@@ -16851,7 +16855,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>274</v>
       </c>
@@ -16880,7 +16884,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>275</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>276</v>
       </c>
@@ -16938,7 +16942,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>277</v>
       </c>
@@ -16967,7 +16971,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>278</v>
       </c>
@@ -16996,7 +17000,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>72</v>
       </c>
@@ -17025,7 +17029,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>279</v>
       </c>
@@ -17054,7 +17058,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>280</v>
       </c>
@@ -17083,7 +17087,7 @@
         <v>13577</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
         <v>281</v>
       </c>
@@ -17112,7 +17116,7 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
         <v>282</v>
       </c>
@@ -17141,7 +17145,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
         <v>283</v>
       </c>
@@ -17170,7 +17174,7 @@
         <v>7492</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
         <v>284</v>
       </c>
@@ -17199,7 +17203,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
         <v>285</v>
       </c>
@@ -17228,7 +17232,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
         <v>286</v>
       </c>
@@ -17257,7 +17261,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
         <v>287</v>
       </c>
@@ -17286,7 +17290,7 @@
         <v>9614</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
         <v>288</v>
       </c>
@@ -17315,7 +17319,7 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
         <v>289</v>
       </c>
@@ -17344,7 +17348,7 @@
         <v>6345</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
         <v>290</v>
       </c>
@@ -17373,7 +17377,7 @@
         <v>5653</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
         <v>291</v>
       </c>
@@ -17402,7 +17406,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21" t="s">
         <v>292</v>
       </c>
@@ -17431,7 +17435,7 @@
         <v>7226</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21" t="s">
         <v>293</v>
       </c>
@@ -17460,7 +17464,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="s">
         <v>72</v>
       </c>
@@ -17489,7 +17493,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>294</v>
       </c>
@@ -17518,7 +17522,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>295</v>
       </c>
@@ -17547,7 +17551,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>296</v>
       </c>
@@ -17576,7 +17580,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>297</v>
       </c>
@@ -17605,7 +17609,7 @@
         <v>22071</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>298</v>
       </c>
@@ -17634,7 +17638,7 @@
         <v>17539</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>299</v>
       </c>
@@ -17663,7 +17667,7 @@
         <v>8933</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>300</v>
       </c>
@@ -17692,7 +17696,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>301</v>
       </c>
@@ -17721,7 +17725,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>95</v>
       </c>
@@ -17750,7 +17754,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>72</v>
       </c>
@@ -17779,7 +17783,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
         <v>304</v>
       </c>
@@ -17808,7 +17812,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
         <v>160</v>
       </c>
@@ -17837,7 +17841,7 @@
         <v>21503</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
         <v>305</v>
       </c>
@@ -17866,7 +17870,7 @@
         <v>21869</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>306</v>
       </c>
@@ -17895,7 +17899,7 @@
         <v>21894</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>307</v>
       </c>
@@ -17924,7 +17928,7 @@
         <v>15043</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>308</v>
       </c>
@@ -17953,7 +17957,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
         <v>309</v>
       </c>
@@ -17982,7 +17986,7 @@
         <v>11434</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
         <v>367</v>
       </c>
@@ -18011,7 +18015,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>368</v>
       </c>
@@ -18040,7 +18044,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>312</v>
       </c>
@@ -18069,7 +18073,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>313</v>
       </c>
@@ -18098,7 +18102,7 @@
         <v>11847</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="37" t="s">
         <v>314</v>
       </c>
@@ -18127,7 +18131,7 @@
         <v>8278</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="37" t="s">
         <v>369</v>
       </c>
@@ -18156,7 +18160,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
         <v>370</v>
       </c>
@@ -18185,7 +18189,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>368</v>
       </c>
@@ -18214,7 +18218,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>312</v>
       </c>
@@ -18243,7 +18247,7 @@
         <v>15404</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>371</v>
       </c>
@@ -18272,7 +18276,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="37" t="s">
         <v>372</v>
       </c>
@@ -18301,7 +18305,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="37" t="s">
         <v>373</v>
       </c>
@@ -18330,7 +18334,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18" t="s">
         <v>374</v>
       </c>
@@ -18359,7 +18363,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>375</v>
       </c>
@@ -18388,7 +18392,7 @@
         <v>15118</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>376</v>
       </c>
@@ -18417,7 +18421,7 @@
         <v>21386</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
         <v>377</v>
       </c>
@@ -18446,7 +18450,7 @@
         <v>19584</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
         <v>378</v>
       </c>
@@ -18475,7 +18479,7 @@
         <v>10729</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>365</v>
       </c>
@@ -18504,7 +18508,7 @@
         <v>13934</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>366</v>
       </c>
@@ -18533,7 +18537,7 @@
         <v>22071</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>72</v>
       </c>
@@ -18562,7 +18566,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
         <v>379</v>
       </c>
@@ -18591,7 +18595,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>380</v>
       </c>
@@ -18620,7 +18624,7 @@
         <v>17864</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>381</v>
       </c>
@@ -18649,7 +18653,7 @@
         <v>14758</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>382</v>
       </c>
@@ -18678,7 +18682,7 @@
         <v>6873</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>383</v>
       </c>
@@ -18707,7 +18711,7 @@
         <v>10694</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>384</v>
       </c>
@@ -18736,7 +18740,7 @@
         <v>8409</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>385</v>
       </c>
@@ -18765,7 +18769,7 @@
         <v>12888</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>386</v>
       </c>
@@ -18794,7 +18798,7 @@
         <v>15662</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>387</v>
       </c>
@@ -18823,7 +18827,7 @@
         <v>7984</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>388</v>
       </c>
@@ -18852,7 +18856,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>389</v>
       </c>
@@ -18881,7 +18885,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>390</v>
       </c>
@@ -18910,7 +18914,7 @@
         <v>6766</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
         <v>331</v>
       </c>
@@ -18939,7 +18943,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
         <v>325</v>
       </c>
@@ -18968,7 +18972,7 @@
         <v>17671</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
         <v>326</v>
       </c>
@@ -18997,7 +19001,7 @@
         <v>17939</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
         <v>332</v>
       </c>
@@ -19026,10 +19030,10 @@
         <v>20668</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="126" t="s">
         <v>333</v>
       </c>
@@ -19070,18 +19074,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="11" width="7.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="11" width="7.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="128" t="s">
         <v>341</v>
       </c>
@@ -19096,7 +19100,7 @@
       <c r="J2" s="129"/>
       <c r="K2" s="129"/>
     </row>
-    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="143" t="s">
         <v>342</v>
@@ -19113,7 +19117,7 @@
       <c r="J3" s="144"/>
       <c r="K3" s="144"/>
     </row>
-    <row r="4" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="146" t="s">
         <v>159</v>
@@ -19138,7 +19142,7 @@
       <c r="J4" s="148"/>
       <c r="K4" s="148"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="134" t="s">
         <v>159</v>
@@ -19167,7 +19171,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>168</v>
       </c>
@@ -19202,7 +19206,7 @@
         <v>18793</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>169</v>
       </c>
@@ -19237,7 +19241,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>171</v>
       </c>
@@ -19272,7 +19276,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>173</v>
       </c>
@@ -19307,7 +19311,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>174</v>
       </c>
@@ -19342,7 +19346,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>175</v>
       </c>
@@ -19377,7 +19381,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>176</v>
       </c>
@@ -19412,7 +19416,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>177</v>
       </c>
@@ -19447,7 +19451,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>178</v>
       </c>
@@ -19482,7 +19486,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>179</v>
       </c>
@@ -19517,7 +19521,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>180</v>
       </c>
@@ -19552,7 +19556,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>181</v>
       </c>
@@ -19587,7 +19591,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>182</v>
       </c>
@@ -19622,7 +19626,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>184</v>
       </c>
@@ -19657,7 +19661,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>185</v>
       </c>
@@ -19692,7 +19696,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>186</v>
       </c>
@@ -19727,7 +19731,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>187</v>
       </c>
@@ -19762,7 +19766,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>188</v>
       </c>
@@ -19797,7 +19801,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>189</v>
       </c>
@@ -19833,7 +19837,7 @@
       </c>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>190</v>
       </c>
@@ -19868,7 +19872,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>191</v>
       </c>
@@ -19903,7 +19907,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>192</v>
       </c>
@@ -19938,7 +19942,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>193</v>
       </c>
@@ -19973,7 +19977,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>194</v>
       </c>
@@ -20008,7 +20012,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>195</v>
       </c>
@@ -20043,7 +20047,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>196</v>
       </c>
@@ -20078,7 +20082,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>197</v>
       </c>
@@ -20113,7 +20117,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>198</v>
       </c>
@@ -20148,7 +20152,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>199</v>
       </c>
@@ -20183,7 +20187,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>200</v>
       </c>
@@ -20218,7 +20222,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>201</v>
       </c>
@@ -20253,7 +20257,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>202</v>
       </c>
@@ -20288,7 +20292,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>203</v>
       </c>
@@ -20323,7 +20327,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>204</v>
       </c>
@@ -20358,7 +20362,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>205</v>
       </c>
@@ -20393,7 +20397,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>206</v>
       </c>
@@ -20428,7 +20432,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>207</v>
       </c>
@@ -20463,7 +20467,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>208</v>
       </c>
@@ -20498,7 +20502,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>209</v>
       </c>
@@ -20533,7 +20537,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>210</v>
       </c>
@@ -20568,7 +20572,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>211</v>
       </c>
@@ -20603,7 +20607,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>212</v>
       </c>
@@ -20638,7 +20642,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>213</v>
       </c>
@@ -20673,7 +20677,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>214</v>
       </c>
@@ -20708,7 +20712,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>215</v>
       </c>
@@ -20743,7 +20747,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>216</v>
       </c>
@@ -20778,7 +20782,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>217</v>
       </c>
@@ -20813,7 +20817,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>218</v>
       </c>
@@ -20848,7 +20852,7 @@
         <v>7863</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>219</v>
       </c>
@@ -20883,7 +20887,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>220</v>
       </c>
@@ -20918,7 +20922,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>221</v>
       </c>
@@ -20953,7 +20957,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>222</v>
       </c>
@@ -20988,7 +20992,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>223</v>
       </c>
@@ -21023,7 +21027,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>224</v>
       </c>
@@ -21058,7 +21062,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>225</v>
       </c>
@@ -21093,7 +21097,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>226</v>
       </c>
@@ -21128,7 +21132,7 @@
         <v>6489</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>227</v>
       </c>
@@ -21163,7 +21167,7 @@
         <v>6922</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>228</v>
       </c>
@@ -21198,7 +21202,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>229</v>
       </c>
@@ -21233,7 +21237,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>230</v>
       </c>
@@ -21268,7 +21272,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>231</v>
       </c>
@@ -21303,7 +21307,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>232</v>
       </c>
@@ -21338,7 +21342,7 @@
         <v>7321</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>233</v>
       </c>
@@ -21373,7 +21377,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>234</v>
       </c>
@@ -21408,7 +21412,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>235</v>
       </c>
@@ -21443,7 +21447,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>236</v>
       </c>
@@ -21478,7 +21482,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>237</v>
       </c>
@@ -21513,7 +21517,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>238</v>
       </c>
@@ -21548,7 +21552,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>239</v>
       </c>
@@ -21583,7 +21587,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>240</v>
       </c>
@@ -21618,7 +21622,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>241</v>
       </c>
@@ -21653,7 +21657,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>242</v>
       </c>
@@ -21688,7 +21692,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>243</v>
       </c>
@@ -21723,7 +21727,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>244</v>
       </c>
@@ -21758,7 +21762,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>245</v>
       </c>
@@ -21793,7 +21797,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>246</v>
       </c>
@@ -21828,7 +21832,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>247</v>
       </c>
@@ -21863,7 +21867,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>248</v>
       </c>
@@ -21898,7 +21902,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>249</v>
       </c>
@@ -21933,7 +21937,7 @@
         <v>5082</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>250</v>
       </c>
@@ -21968,7 +21972,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>251</v>
       </c>
@@ -22003,7 +22007,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>252</v>
       </c>
@@ -22038,7 +22042,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>253</v>
       </c>
@@ -22073,7 +22077,7 @@
         <v>13717</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>254</v>
       </c>
@@ -22108,7 +22112,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
         <v>255</v>
       </c>
@@ -22143,7 +22147,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>256</v>
       </c>
@@ -22178,7 +22182,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
         <v>257</v>
       </c>
@@ -22213,7 +22217,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>258</v>
       </c>
@@ -22248,7 +22252,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
         <v>259</v>
       </c>
@@ -22283,7 +22287,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
         <v>260</v>
       </c>
@@ -22318,7 +22322,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
         <v>261</v>
       </c>
@@ -22353,7 +22357,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>262</v>
       </c>
@@ -22388,7 +22392,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>263</v>
       </c>
@@ -22423,7 +22427,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>264</v>
       </c>
@@ -22458,7 +22462,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>265</v>
       </c>
@@ -22493,7 +22497,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>72</v>
       </c>
@@ -22528,7 +22532,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>266</v>
       </c>
@@ -22563,7 +22567,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>263</v>
       </c>
@@ -22598,7 +22602,7 @@
         <v>15507</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>264</v>
       </c>
@@ -22633,7 +22637,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>265</v>
       </c>
@@ -22668,7 +22672,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>72</v>
       </c>
@@ -22703,7 +22707,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>267</v>
       </c>
@@ -22738,7 +22742,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>268</v>
       </c>
@@ -22773,7 +22777,7 @@
         <v>10705</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>269</v>
       </c>
@@ -22808,7 +22812,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>270</v>
       </c>
@@ -22843,7 +22847,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>271</v>
       </c>
@@ -22878,7 +22882,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>272</v>
       </c>
@@ -22913,7 +22917,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>273</v>
       </c>
@@ -22948,7 +22952,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>274</v>
       </c>
@@ -22983,7 +22987,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>275</v>
       </c>
@@ -23018,7 +23022,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>276</v>
       </c>
@@ -23053,7 +23057,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>277</v>
       </c>
@@ -23088,7 +23092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>278</v>
       </c>
@@ -23123,7 +23127,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>72</v>
       </c>
@@ -23158,7 +23162,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>279</v>
       </c>
@@ -23193,7 +23197,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>280</v>
       </c>
@@ -23228,7 +23232,7 @@
         <v>11668</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
         <v>281</v>
       </c>
@@ -23263,7 +23267,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
         <v>282</v>
       </c>
@@ -23298,7 +23302,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
         <v>283</v>
       </c>
@@ -23333,7 +23337,7 @@
         <v>6095</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
         <v>284</v>
       </c>
@@ -23368,7 +23372,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
         <v>285</v>
       </c>
@@ -23403,7 +23407,7 @@
         <v>6911</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
         <v>286</v>
       </c>
@@ -23438,7 +23442,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
         <v>287</v>
       </c>
@@ -23473,7 +23477,7 @@
         <v>8253</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
         <v>288</v>
       </c>
@@ -23508,7 +23512,7 @@
         <v>8076</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
         <v>289</v>
       </c>
@@ -23543,7 +23547,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
         <v>290</v>
       </c>
@@ -23578,7 +23582,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
         <v>291</v>
       </c>
@@ -23613,7 +23617,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21" t="s">
         <v>292</v>
       </c>
@@ -23648,7 +23652,7 @@
         <v>5281</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21" t="s">
         <v>293</v>
       </c>
@@ -23683,7 +23687,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="s">
         <v>72</v>
       </c>
@@ -23718,7 +23722,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>294</v>
       </c>
@@ -23753,7 +23757,7 @@
         <v>6073</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>295</v>
       </c>
@@ -23788,7 +23792,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>296</v>
       </c>
@@ -23823,7 +23827,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>297</v>
       </c>
@@ -23858,7 +23862,7 @@
         <v>18793</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>298</v>
       </c>
@@ -23893,7 +23897,7 @@
         <v>14803</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>299</v>
       </c>
@@ -23928,7 +23932,7 @@
         <v>6219</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>300</v>
       </c>
@@ -23963,7 +23967,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>301</v>
       </c>
@@ -23998,7 +24002,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>95</v>
       </c>
@@ -24033,7 +24037,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
         <v>72</v>
       </c>
@@ -24068,7 +24072,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="28" t="s">
         <v>348</v>
       </c>
@@ -24101,7 +24105,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="31" t="s">
         <v>297</v>
       </c>
@@ -24136,7 +24140,7 @@
         <v>11957</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="31" t="s">
         <v>298</v>
       </c>
@@ -24171,7 +24175,7 @@
         <v>10629</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="31" t="s">
         <v>299</v>
       </c>
@@ -24206,7 +24210,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="31" t="s">
         <v>300</v>
       </c>
@@ -24241,7 +24245,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="34" t="s">
         <v>95</v>
       </c>
@@ -24276,7 +24280,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>304</v>
       </c>
@@ -24311,7 +24315,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
         <v>160</v>
       </c>
@@ -24346,7 +24350,7 @@
         <v>18523</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>305</v>
       </c>
@@ -24381,7 +24385,7 @@
         <v>18662</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>306</v>
       </c>
@@ -24416,7 +24420,7 @@
         <v>18793</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>307</v>
       </c>
@@ -24451,7 +24455,7 @@
         <v>12679</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
         <v>308</v>
       </c>
@@ -24486,7 +24490,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
         <v>309</v>
       </c>
@@ -24521,7 +24525,7 @@
         <v>8378</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
         <v>349</v>
       </c>
@@ -24556,7 +24560,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>350</v>
       </c>
@@ -24591,7 +24595,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>351</v>
       </c>
@@ -24626,7 +24630,7 @@
         <v>5147</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>352</v>
       </c>
@@ -24661,7 +24665,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>353</v>
       </c>
@@ -24696,7 +24700,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
         <v>354</v>
       </c>
@@ -24731,10 +24735,10 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" spans="1:11" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="126" t="s">
         <v>355</v>
       </c>
@@ -24778,21 +24782,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -24800,7 +24804,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -24808,7 +24812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="115" t="s">
         <v>457</v>
       </c>
@@ -24816,7 +24820,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="117" t="s">
         <v>458</v>
       </c>
@@ -24824,7 +24828,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24832,7 +24836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24840,7 +24844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -24848,7 +24852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -24856,7 +24860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -24864,7 +24868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -24872,7 +24876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -24880,7 +24884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="115" t="s">
         <v>459</v>
       </c>
@@ -24888,7 +24892,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="117" t="s">
         <v>460</v>
       </c>
@@ -24896,7 +24900,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -24904,7 +24908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="115" t="s">
         <v>463</v>
       </c>
@@ -24912,7 +24916,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="117" t="s">
         <v>464</v>
       </c>
@@ -24920,7 +24924,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="115" t="s">
         <v>467</v>
       </c>
@@ -24928,7 +24932,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="117" t="s">
         <v>468</v>
       </c>
@@ -24936,7 +24940,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -24944,7 +24948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -24952,7 +24956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -24960,7 +24964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -24968,7 +24972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -24976,7 +24980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -24984,7 +24988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -24993,7 +24997,7 @@
       </c>
       <c r="C25" s="99"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="115" t="s">
         <v>472</v>
       </c>
@@ -25001,7 +25005,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="119" t="s">
         <v>473</v>
       </c>
@@ -25009,7 +25013,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="117" t="s">
         <v>474</v>
       </c>
@@ -25017,7 +25021,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -25026,7 +25030,7 @@
       </c>
       <c r="C29" s="99"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -25034,7 +25038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -25042,7 +25046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -25050,7 +25054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -25058,7 +25062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -25066,7 +25070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -25074,7 +25078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -25082,7 +25086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -25090,7 +25094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -25098,7 +25102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -25106,7 +25110,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -25114,7 +25118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -25122,7 +25126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -25130,7 +25134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -25149,12 +25153,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>325</v>
       </c>
@@ -25174,7 +25178,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25203,7 +25207,7 @@
         <v>ISIC 27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>439</v>
       </c>
@@ -25245,18 +25249,18 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="61" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="16" style="61" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="122" t="s">
         <v>395</v>
       </c>
@@ -25269,11 +25273,11 @@
       <c r="H1" s="122"/>
       <c r="I1" s="60"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H2" s="55"/>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="109" t="s">
         <v>396</v>
@@ -25297,7 +25301,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
         <v>88</v>
       </c>
@@ -25322,7 +25326,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -25348,7 +25352,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -25374,7 +25378,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -25397,7 +25401,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -25423,7 +25427,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -25446,7 +25450,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -25469,7 +25473,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -25492,7 +25496,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -25515,7 +25519,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -25538,7 +25542,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
         <v>120</v>
       </c>
@@ -25563,7 +25567,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -25589,7 +25593,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -25612,7 +25616,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -25635,7 +25639,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -25661,7 +25665,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -25687,7 +25691,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="78" t="s">
         <v>127</v>
       </c>
@@ -25709,7 +25713,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="64" t="s">
         <v>127</v>
       </c>
@@ -25735,7 +25739,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -25761,7 +25765,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -25784,7 +25788,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -25807,7 +25811,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -25830,7 +25834,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="78" t="s">
         <v>398</v>
       </c>
@@ -25852,7 +25856,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -25875,7 +25879,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="64" t="s">
         <v>398</v>
       </c>
@@ -25901,7 +25905,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>398</v>
       </c>
@@ -25927,7 +25931,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>398</v>
       </c>
@@ -25950,7 +25954,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="78" t="s">
         <v>400</v>
       </c>
@@ -25972,7 +25976,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>400</v>
       </c>
@@ -25998,7 +26002,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
         <v>400</v>
       </c>
@@ -26024,7 +26028,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="78" t="s">
         <v>399</v>
       </c>
@@ -26042,7 +26046,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>394</v>
       </c>
@@ -26056,7 +26060,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>394</v>
       </c>
@@ -26070,7 +26074,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>394</v>
       </c>
@@ -26084,7 +26088,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
         <v>394</v>
       </c>
@@ -26098,7 +26102,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="78" t="s">
         <v>332</v>
       </c>
@@ -26122,7 +26126,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="44"/>
       <c r="B40" s="43"/>
       <c r="C40" s="100"/>
@@ -26132,7 +26136,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="60"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="78" t="s">
         <v>436</v>
       </c>
@@ -26148,7 +26152,7 @@
         <v>0.24578089662143476</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="122" t="s">
         <v>407</v>
       </c>
@@ -26160,7 +26164,7 @@
       <c r="G43" s="122"/>
       <c r="H43" s="122"/>
     </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="75" t="s">
@@ -26182,7 +26186,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="78" t="s">
         <v>409</v>
       </c>
@@ -26204,7 +26208,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="73" t="s">
         <v>297</v>
       </c>
@@ -26229,7 +26233,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="45" t="s">
         <v>297</v>
       </c>
@@ -26243,7 +26247,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
         <v>297</v>
       </c>
@@ -26261,7 +26265,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="45" t="s">
         <v>297</v>
       </c>
@@ -26275,7 +26279,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="45" t="s">
         <v>297</v>
       </c>
@@ -26289,7 +26293,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="45" t="s">
         <v>297</v>
       </c>
@@ -26307,7 +26311,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="45" t="s">
         <v>297</v>
       </c>
@@ -26321,7 +26325,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="45" t="s">
         <v>297</v>
       </c>
@@ -26335,7 +26339,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="73" t="s">
         <v>298</v>
       </c>
@@ -26360,7 +26364,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="45" t="s">
         <v>298</v>
       </c>
@@ -26374,7 +26378,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="45" t="s">
         <v>298</v>
       </c>
@@ -26392,7 +26396,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="45" t="s">
         <v>298</v>
       </c>
@@ -26406,7 +26410,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="45" t="s">
         <v>298</v>
       </c>
@@ -26420,7 +26424,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="45" t="s">
         <v>298</v>
       </c>
@@ -26438,7 +26442,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="45" t="s">
         <v>298</v>
       </c>
@@ -26452,7 +26456,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="45" t="s">
         <v>298</v>
       </c>
@@ -26466,7 +26470,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="73" t="s">
         <v>299</v>
       </c>
@@ -26491,7 +26495,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="45" t="s">
         <v>299</v>
       </c>
@@ -26505,7 +26509,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="45" t="s">
         <v>299</v>
       </c>
@@ -26523,7 +26527,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
         <v>299</v>
       </c>
@@ -26537,7 +26541,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="45" t="s">
         <v>299</v>
       </c>
@@ -26551,7 +26555,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="45" t="s">
         <v>299</v>
       </c>
@@ -26569,7 +26573,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="45" t="s">
         <v>299</v>
       </c>
@@ -26583,7 +26587,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="45" t="s">
         <v>299</v>
       </c>
@@ -26597,7 +26601,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>300</v>
       </c>
@@ -26608,7 +26612,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="45" t="s">
         <v>300</v>
       </c>
@@ -26622,7 +26626,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="45" t="s">
         <v>300</v>
       </c>
@@ -26636,7 +26640,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="45" t="s">
         <v>300</v>
       </c>
@@ -26650,7 +26654,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="45" t="s">
         <v>300</v>
       </c>
@@ -26664,7 +26668,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45" t="s">
         <v>300</v>
       </c>
@@ -26678,7 +26682,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="45" t="s">
         <v>300</v>
       </c>
@@ -26692,7 +26696,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="45" t="s">
         <v>300</v>
       </c>
@@ -26706,7 +26710,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -26717,7 +26721,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="45" t="s">
         <v>95</v>
       </c>
@@ -26731,7 +26735,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="45" t="s">
         <v>95</v>
       </c>
@@ -26745,7 +26749,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="45" t="s">
         <v>95</v>
       </c>
@@ -26759,7 +26763,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="45" t="s">
         <v>95</v>
       </c>
@@ -26773,7 +26777,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="45" t="s">
         <v>95</v>
       </c>
@@ -26787,7 +26791,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="45" t="s">
         <v>95</v>
       </c>
@@ -26801,7 +26805,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="45" t="s">
         <v>95</v>
       </c>
@@ -26815,7 +26819,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="H86" t="s">
         <v>76</v>
@@ -26824,7 +26828,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="H87" t="s">
         <v>76</v>
@@ -26833,7 +26837,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="78" t="s">
         <v>357</v>
       </c>
@@ -26855,7 +26859,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>297</v>
       </c>
@@ -26881,7 +26885,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>298</v>
       </c>
@@ -26907,7 +26911,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>299</v>
       </c>
@@ -26933,7 +26937,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>300</v>
       </c>
@@ -26947,7 +26951,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -26961,7 +26965,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H94" t="s">
         <v>76</v>
       </c>
@@ -26969,7 +26973,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="95" t="s">
         <v>411</v>
       </c>
@@ -26991,7 +26995,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>297</v>
       </c>
@@ -27012,7 +27016,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>297</v>
       </c>
@@ -27033,7 +27037,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>297</v>
       </c>
@@ -27054,7 +27058,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H99" t="s">
         <v>76</v>
       </c>
@@ -27062,7 +27066,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="95" t="s">
         <v>413</v>
       </c>
@@ -27084,7 +27088,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>413</v>
       </c>
@@ -27105,7 +27109,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>413</v>
       </c>
@@ -27126,7 +27130,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>413</v>
       </c>
@@ -27147,7 +27151,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H104" t="s">
         <v>76</v>
       </c>
@@ -27270,19 +27274,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>392</v>
       </c>
@@ -27290,7 +27294,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>410</v>
       </c>
@@ -27301,7 +27305,7 @@
         <v>0.54054769805800118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>410</v>
       </c>
@@ -27312,7 +27316,7 @@
         <v>0.71607519212481041</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>410</v>
       </c>
@@ -27323,7 +27327,7 @@
         <v>0.82799025121859771</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>410</v>
       </c>
@@ -27334,7 +27338,7 @@
         <v>0.80922581798676907</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>410</v>
       </c>
@@ -27345,7 +27349,7 @@
         <v>0.73560375227976449</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>410</v>
       </c>
@@ -27356,7 +27360,7 @@
         <v>0.77352718723476832</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>411</v>
       </c>
@@ -27367,7 +27371,7 @@
         <v>0.70929577487429007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>411</v>
       </c>
@@ -27378,7 +27382,7 @@
         <v>0.72239286108317868</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>411</v>
       </c>
@@ -27389,7 +27393,7 @@
         <v>0.30780169478334291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>412</v>
       </c>
@@ -27400,7 +27404,7 @@
         <v>0.74018277158435497</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>412</v>
       </c>
@@ -27411,7 +27415,7 @@
         <v>0.761290322580645</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>412</v>
       </c>
@@ -27422,7 +27426,7 @@
         <v>0.92443572129538765</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>412</v>
       </c>
@@ -27433,7 +27437,7 @@
         <v>0.8942307692307695</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>413</v>
       </c>
@@ -27444,7 +27448,7 @@
         <v>0.23418371777538238</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>413</v>
       </c>
@@ -27455,7 +27459,7 @@
         <v>0.7269146515771101</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>413</v>
       </c>
@@ -27479,16 +27483,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="122" t="s">
         <v>335</v>
       </c>
@@ -27501,7 +27505,7 @@
       <c r="H1" s="122"/>
       <c r="I1" s="122"/>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>339</v>
       </c>
@@ -27521,7 +27525,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
         <v>297</v>
       </c>
@@ -27533,7 +27537,7 @@
         <v>0.34719120903556966</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>297</v>
       </c>
@@ -27553,7 +27557,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>297</v>
       </c>
@@ -27573,7 +27577,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>297</v>
       </c>
@@ -27593,7 +27597,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
         <v>297</v>
       </c>
@@ -27613,7 +27617,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="77" t="s">
         <v>297</v>
       </c>
@@ -27633,7 +27637,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
         <v>297</v>
       </c>
@@ -27653,7 +27657,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
         <v>297</v>
       </c>
@@ -27673,7 +27677,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
         <v>298</v>
       </c>
@@ -27695,7 +27699,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>298</v>
       </c>
@@ -27715,7 +27719,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
         <v>298</v>
       </c>
@@ -27735,7 +27739,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
         <v>298</v>
       </c>
@@ -27755,7 +27759,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
         <v>298</v>
       </c>
@@ -27775,7 +27779,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
         <v>298</v>
       </c>
@@ -27795,7 +27799,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
         <v>298</v>
       </c>
@@ -27815,7 +27819,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
         <v>298</v>
       </c>
@@ -27835,7 +27839,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="78" t="s">
         <v>299</v>
       </c>
@@ -27857,7 +27861,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>299</v>
       </c>
@@ -27877,7 +27881,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
         <v>299</v>
       </c>
@@ -27897,7 +27901,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
         <v>299</v>
       </c>
@@ -27917,7 +27921,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
         <v>299</v>
       </c>
@@ -27937,7 +27941,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
         <v>299</v>
       </c>
@@ -27957,7 +27961,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
         <v>299</v>
       </c>
@@ -27977,7 +27981,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
         <v>299</v>
       </c>
@@ -27997,7 +28001,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="78" t="s">
         <v>300</v>
       </c>
@@ -28015,7 +28019,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
         <v>300</v>
       </c>
@@ -28035,7 +28039,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
         <v>300</v>
       </c>
@@ -28055,7 +28059,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
         <v>300</v>
       </c>
@@ -28075,7 +28079,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
         <v>300</v>
       </c>
@@ -28095,7 +28099,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
         <v>300</v>
       </c>
@@ -28115,7 +28119,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
         <v>300</v>
       </c>
@@ -28135,7 +28139,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
         <v>300</v>
       </c>
@@ -28155,7 +28159,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="78" t="s">
         <v>95</v>
       </c>
@@ -28173,7 +28177,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="45" t="s">
         <v>95</v>
       </c>
@@ -28193,7 +28197,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="45" t="s">
         <v>95</v>
       </c>
@@ -28213,7 +28217,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
         <v>95</v>
       </c>
@@ -28233,7 +28237,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
         <v>95</v>
       </c>
@@ -28253,7 +28257,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
         <v>95</v>
       </c>
@@ -28273,7 +28277,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="45" t="s">
         <v>95</v>
       </c>
@@ -28293,7 +28297,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="45" t="s">
         <v>95</v>
       </c>
@@ -28313,7 +28317,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="D43" s="53">
         <f>SUM(C4:C42)</f>
@@ -28328,10 +28332,10 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="78" t="s">
         <v>339</v>
       </c>
@@ -28343,7 +28347,7 @@
       </c>
       <c r="D45" s="78"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>297</v>
       </c>
@@ -28367,7 +28371,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>298</v>
       </c>
@@ -28391,7 +28395,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>299</v>
       </c>
@@ -28415,7 +28419,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -28435,7 +28439,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -28455,7 +28459,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C51" t="b">
         <f>SUM(C46:C50)=SUM(TableB42!H147:H151)</f>
         <v>1</v>
@@ -28485,16 +28489,16 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
         <v>334</v>
       </c>
@@ -28507,7 +28511,7 @@
       <c r="H1" s="123"/>
       <c r="I1" s="123"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -28524,7 +28528,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
@@ -28545,7 +28549,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -28555,7 +28559,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>88</v>
       </c>
@@ -28565,7 +28569,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
@@ -28596,7 +28600,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
@@ -28627,7 +28631,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -28655,7 +28659,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>93</v>
       </c>
@@ -28686,7 +28690,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -28714,7 +28718,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -28742,7 +28746,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -28770,7 +28774,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -28798,7 +28802,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -28826,7 +28830,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -28857,7 +28861,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
         <v>99</v>
       </c>
@@ -28872,7 +28876,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>89</v>
       </c>
@@ -28903,7 +28907,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -28931,7 +28935,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -28959,7 +28963,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
@@ -28990,7 +28994,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>101</v>
       </c>
@@ -29021,7 +29025,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -29052,7 +29056,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="71" t="s">
         <v>102</v>
       </c>
@@ -29067,7 +29071,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>103</v>
       </c>
@@ -29098,7 +29102,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -29129,7 +29133,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -29157,7 +29161,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -29185,7 +29189,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -29213,7 +29217,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -29244,7 +29248,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="71" t="s">
         <v>105</v>
       </c>
@@ -29259,7 +29263,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -29287,7 +29291,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
@@ -29317,7 +29321,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -29345,7 +29349,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -29373,7 +29377,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="71" t="s">
         <v>106</v>
       </c>
@@ -29388,7 +29392,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
@@ -29419,7 +29423,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
@@ -29450,7 +29454,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -29481,7 +29485,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="71" t="s">
         <v>107</v>
       </c>
@@ -29495,7 +29499,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -29518,7 +29522,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2020&amp;cases=ref2020&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -29546,40 +29550,40 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C15">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B15">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C22">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C29">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B29">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B34">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C38">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B38">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C41">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B41">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29593,19 +29597,19 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="106" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="105" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="105" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="106" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="106" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="105" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="105" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="106" customWidth="1"/>
     <col min="8" max="16384" width="9" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="125" t="s">
         <v>434</v>
       </c>
@@ -29622,7 +29626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125"/>
       <c r="B2" s="111"/>
       <c r="C2" s="102" t="s">
@@ -29637,7 +29641,7 @@
       <c r="F2" s="125"/>
       <c r="G2" s="103"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
         <v>325</v>
       </c>
@@ -29661,7 +29665,7 @@
         <v>ISIC 28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
         <v>325</v>
       </c>
@@ -29685,7 +29689,7 @@
         <v>ISIC 41T43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>326</v>
       </c>
@@ -29709,7 +29713,7 @@
         <v>ISIC 28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="104" t="s">
         <v>326</v>
       </c>
@@ -29733,7 +29737,7 @@
         <v>ISIC 41T43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>332</v>
       </c>
@@ -29757,7 +29761,7 @@
         <v>ISIC 27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
         <v>332</v>
       </c>
@@ -29781,7 +29785,7 @@
         <v>ISIC 41T43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="104" t="s">
         <v>394</v>
       </c>
@@ -29805,7 +29809,7 @@
         <v>ISIC 27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="104" t="s">
         <v>394</v>
       </c>
@@ -29829,7 +29833,7 @@
         <v>ISIC 41T43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="104" t="s">
         <v>72</v>
       </c>
@@ -29856,7 +29860,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="104" t="s">
         <v>72</v>
       </c>
@@ -29883,7 +29887,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="107"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -29891,7 +29895,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -29900,7 +29904,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -29909,7 +29913,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -29918,7 +29922,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -29927,41 +29931,41 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="105"/>
       <c r="D45" s="105"/>
       <c r="E45" s="105"/>
       <c r="F45" s="106"/>
       <c r="G45" s="106"/>
     </row>
-    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="106"/>
       <c r="B46" s="106"/>
       <c r="C46" s="105"/>
@@ -29970,7 +29974,7 @@
       <c r="F46" s="106"/>
       <c r="G46" s="106"/>
     </row>
-    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="106"/>
       <c r="B47" s="106"/>
       <c r="C47" s="105"/>
@@ -29979,7 +29983,7 @@
       <c r="F47" s="106"/>
       <c r="G47" s="106"/>
     </row>
-    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="106"/>
       <c r="B48" s="106"/>
       <c r="C48" s="105"/>
@@ -29988,7 +29992,7 @@
       <c r="F48" s="106"/>
       <c r="G48" s="106"/>
     </row>
-    <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="106"/>
       <c r="B49" s="106"/>
       <c r="C49" s="105"/>
@@ -30016,32 +30020,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>84</v>
       </c>
@@ -30151,7 +30155,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -30159,7 +30163,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -30167,7 +30171,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -30277,7 +30281,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -30387,7 +30391,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -30497,7 +30501,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -30607,7 +30611,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -30717,7 +30721,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -30827,7 +30831,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -30937,7 +30941,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -31047,7 +31051,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -31157,7 +31161,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -31267,7 +31271,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -31275,7 +31279,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -31385,7 +31389,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -31495,7 +31499,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -31605,7 +31609,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -31715,7 +31719,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -31825,7 +31829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -31935,7 +31939,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -31943,7 +31947,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -32053,7 +32057,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -32163,7 +32167,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -32273,7 +32277,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -32383,7 +32387,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -32493,7 +32497,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -32603,7 +32607,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -32611,7 +32615,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -32721,7 +32725,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -32831,7 +32835,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -32941,7 +32945,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -33051,7 +33055,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -33059,7 +33063,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -33169,7 +33173,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -33279,7 +33283,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -33389,7 +33393,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -33397,7 +33401,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -33507,7 +33511,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -33617,7 +33621,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -33625,7 +33629,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -33633,7 +33637,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>111</v>
       </c>
@@ -33743,7 +33747,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -33853,7 +33857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -33963,7 +33967,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -34073,7 +34077,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -34183,7 +34187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -34191,7 +34195,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -34301,7 +34305,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -34411,7 +34415,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -34521,7 +34525,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -34631,7 +34635,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -34741,7 +34745,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -34749,7 +34753,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -34859,7 +34863,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -34969,7 +34973,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -35079,7 +35083,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -35189,7 +35193,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -35197,7 +35201,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -35307,7 +35311,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -35417,7 +35421,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -35425,7 +35429,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -35433,7 +35437,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -35543,7 +35547,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -35653,7 +35657,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -35763,7 +35767,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -35771,7 +35775,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>137</v>
       </c>
@@ -35881,7 +35885,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -35991,7 +35995,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -36101,7 +36105,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -36109,7 +36113,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -36117,7 +36121,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -36125,7 +36129,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>144</v>
       </c>
@@ -36235,7 +36239,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -36345,7 +36349,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>148</v>
       </c>
@@ -36455,7 +36459,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -36565,7 +36569,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -36573,7 +36577,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -36683,7 +36687,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -36793,7 +36797,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -36903,7 +36907,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -37013,7 +37017,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>151</v>
       </c>
@@ -37021,7 +37025,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -37131,7 +37135,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -37241,7 +37245,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>154</v>
       </c>
@@ -37249,7 +37253,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>144</v>
       </c>
@@ -37359,7 +37363,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>147</v>
       </c>
@@ -37469,7 +37473,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>148</v>
       </c>
@@ -37579,7 +37583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -37691,10 +37695,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
+++ b/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/bldgs/sobcaicbic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/sobcaicbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94942745-4BDF-2049-8BB2-0BBA1DA0015B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E0443E-BD00-0447-89F9-ABC3C95D900A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="27180" windowHeight="14840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
